--- a/Manage/upload_file/智慧彩云初始化数据/智慧交通/组-学号-动作 权限分配.xlsx
+++ b/Manage/upload_file/智慧彩云初始化数据/智慧交通/组-学号-动作 权限分配.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="19200" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="7">
   <si>
     <t>task_admin</t>
   </si>
@@ -42,8 +42,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -98,28 +98,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,14 +121,83 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,22 +219,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -187,26 +227,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -216,30 +240,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -250,67 +250,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,115 +430,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,6 +483,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -493,21 +522,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -528,31 +542,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,10 +564,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -576,133 +576,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1062,10 +1062,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D394"/>
+  <dimension ref="A1:D396"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1211,28 +1211,27 @@
       <c r="A13" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="2">
-        <v>19510146</v>
+      <c r="B13" s="1">
+        <v>19510139</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="2">
-        <v>19510146</v>
+      <c r="B14" s="1">
+        <v>19510139</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B15" s="2">
         <v>19510146</v>
@@ -1243,7 +1242,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B16" s="2">
         <v>19510146</v>
@@ -1255,7 +1254,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B17" s="2">
         <v>19510146</v>
@@ -1264,23 +1263,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="1">
-        <v>19510112</v>
+      <c r="B18" s="2">
+        <v>19510146</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="1">
-        <v>206510225</v>
+        <v>6</v>
+      </c>
+      <c r="B19" s="2">
+        <v>19510146</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>1</v>
@@ -1291,7 +1291,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="1">
-        <v>206510242</v>
+        <v>19510112</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>1</v>
@@ -1302,7 +1302,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="1">
-        <v>206510102</v>
+        <v>206510225</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>1</v>
@@ -1313,7 +1313,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="1">
-        <v>206510105</v>
+        <v>206510242</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>1</v>
@@ -1323,21 +1323,45 @@
       <c r="A23" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="1">
+        <v>206510102</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1">
+        <v>206510105</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3">
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="3:3">
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="3:3">
-      <c r="C26" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="1">
+        <v>19510139</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" s="2"/>
@@ -1345,12 +1369,10 @@
     <row r="28" spans="3:3">
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="2:3">
-      <c r="B29" s="2"/>
+    <row r="29" spans="3:3">
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="2:3">
-      <c r="B30" s="2"/>
+    <row r="30" spans="3:3">
       <c r="C30" s="2"/>
     </row>
     <row r="31" spans="2:3">
@@ -1397,23 +1419,25 @@
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" ht="14.25" spans="2:3">
+    <row r="42" spans="2:3">
       <c r="B42" s="2"/>
-      <c r="C42" s="3"/>
+      <c r="C42" s="2"/>
     </row>
     <row r="43" spans="2:3">
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-    </row>
-    <row r="44" spans="2:3">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+    </row>
+    <row r="44" ht="14.25" spans="2:3">
       <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" s="5"/>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46" s="5"/>
+      <c r="C44" s="3"/>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="5"/>
@@ -1458,79 +1482,79 @@
       <c r="B60" s="5"/>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="6"/>
+      <c r="B61" s="5"/>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" s="5"/>
     </row>
     <row r="63" spans="2:2">
-      <c r="B63" s="5"/>
+      <c r="B63" s="6"/>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="5"/>
     </row>
     <row r="65" spans="2:2">
-      <c r="B65" s="6"/>
+      <c r="B65" s="5"/>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" s="7"/>
+      <c r="B66" s="5"/>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="6"/>
     </row>
     <row r="68" spans="2:2">
-      <c r="B68" s="6"/>
+      <c r="B68" s="7"/>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" s="6"/>
     </row>
     <row r="70" spans="2:2">
-      <c r="B70" s="8"/>
+      <c r="B70" s="6"/>
     </row>
     <row r="71" spans="2:2">
-      <c r="B71" s="5"/>
+      <c r="B71" s="6"/>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="6"/>
+      <c r="B72" s="8"/>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" s="5"/>
     </row>
     <row r="74" spans="2:2">
-      <c r="B74" s="5"/>
+      <c r="B74" s="6"/>
     </row>
     <row r="75" spans="2:2">
-      <c r="B75" s="9"/>
+      <c r="B75" s="5"/>
     </row>
     <row r="76" spans="2:2">
-      <c r="B76" s="9"/>
+      <c r="B76" s="5"/>
     </row>
     <row r="77" spans="2:2">
-      <c r="B77" s="5"/>
+      <c r="B77" s="9"/>
     </row>
     <row r="78" spans="2:2">
-      <c r="B78" s="7"/>
+      <c r="B78" s="9"/>
     </row>
     <row r="79" spans="2:2">
-      <c r="B79" s="6"/>
+      <c r="B79" s="5"/>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" s="7"/>
     </row>
     <row r="81" spans="2:2">
-      <c r="B81" s="5"/>
+      <c r="B81" s="6"/>
     </row>
     <row r="82" spans="2:2">
-      <c r="B82" s="5"/>
+      <c r="B82" s="7"/>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" s="5"/>
     </row>
     <row r="84" spans="2:2">
-      <c r="B84" s="6"/>
+      <c r="B84" s="5"/>
     </row>
     <row r="85" spans="2:2">
-      <c r="B85" s="6"/>
+      <c r="B85" s="5"/>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" s="6"/>
@@ -1542,40 +1566,40 @@
       <c r="B88" s="6"/>
     </row>
     <row r="89" spans="2:2">
-      <c r="B89" s="7"/>
+      <c r="B89" s="6"/>
     </row>
     <row r="90" spans="2:2">
-      <c r="B90" s="8"/>
+      <c r="B90" s="6"/>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" s="7"/>
     </row>
     <row r="92" spans="2:2">
-      <c r="B92" s="7"/>
+      <c r="B92" s="8"/>
     </row>
     <row r="93" spans="2:2">
-      <c r="B93" s="5"/>
+      <c r="B93" s="7"/>
     </row>
     <row r="94" spans="2:2">
-      <c r="B94" s="5"/>
+      <c r="B94" s="7"/>
     </row>
     <row r="95" spans="2:2">
-      <c r="B95" s="6"/>
+      <c r="B95" s="5"/>
     </row>
     <row r="96" spans="2:2">
-      <c r="B96" s="6"/>
+      <c r="B96" s="5"/>
     </row>
     <row r="97" spans="2:2">
-      <c r="B97" s="10"/>
+      <c r="B97" s="6"/>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" s="6"/>
     </row>
     <row r="99" spans="2:2">
-      <c r="B99" s="6"/>
+      <c r="B99" s="10"/>
     </row>
     <row r="100" spans="2:2">
-      <c r="B100" s="5"/>
+      <c r="B100" s="6"/>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" s="6"/>
@@ -1584,67 +1608,67 @@
       <c r="B102" s="5"/>
     </row>
     <row r="103" spans="2:2">
-      <c r="B103" s="5"/>
+      <c r="B103" s="6"/>
     </row>
     <row r="104" spans="2:2">
-      <c r="B104" s="6"/>
+      <c r="B104" s="5"/>
     </row>
     <row r="105" spans="2:2">
-      <c r="B105" s="6"/>
+      <c r="B105" s="5"/>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" s="6"/>
     </row>
     <row r="107" spans="2:2">
-      <c r="B107" s="5"/>
+      <c r="B107" s="6"/>
     </row>
     <row r="108" spans="2:2">
       <c r="B108" s="6"/>
     </row>
     <row r="109" spans="2:2">
-      <c r="B109" s="6"/>
+      <c r="B109" s="5"/>
     </row>
     <row r="110" spans="2:2">
-      <c r="B110" s="5"/>
+      <c r="B110" s="6"/>
     </row>
     <row r="111" spans="2:2">
       <c r="B111" s="6"/>
     </row>
     <row r="112" spans="2:2">
-      <c r="B112" s="6"/>
+      <c r="B112" s="5"/>
     </row>
     <row r="113" spans="2:2">
-      <c r="B113" s="5"/>
+      <c r="B113" s="6"/>
     </row>
     <row r="114" spans="2:2">
       <c r="B114" s="6"/>
     </row>
     <row r="115" spans="2:2">
-      <c r="B115" s="6"/>
+      <c r="B115" s="5"/>
     </row>
     <row r="116" spans="2:2">
-      <c r="B116" s="5"/>
+      <c r="B116" s="6"/>
     </row>
     <row r="117" spans="2:2">
-      <c r="B117" s="5"/>
+      <c r="B117" s="6"/>
     </row>
     <row r="118" spans="2:2">
-      <c r="B118" s="10"/>
+      <c r="B118" s="5"/>
     </row>
     <row r="119" spans="2:2">
-      <c r="B119" s="6"/>
+      <c r="B119" s="5"/>
     </row>
     <row r="120" spans="2:2">
-      <c r="B120" s="6"/>
+      <c r="B120" s="10"/>
     </row>
     <row r="121" spans="2:2">
-      <c r="B121" s="5"/>
+      <c r="B121" s="6"/>
     </row>
     <row r="122" spans="2:2">
       <c r="B122" s="6"/>
     </row>
     <row r="123" spans="2:2">
-      <c r="B123" s="6"/>
+      <c r="B123" s="5"/>
     </row>
     <row r="124" spans="2:2">
       <c r="B124" s="6"/>
@@ -1656,37 +1680,37 @@
       <c r="B126" s="6"/>
     </row>
     <row r="127" spans="2:2">
-      <c r="B127" s="7"/>
+      <c r="B127" s="6"/>
     </row>
     <row r="128" spans="2:2">
       <c r="B128" s="6"/>
     </row>
     <row r="129" spans="2:2">
-      <c r="B129" s="6"/>
+      <c r="B129" s="7"/>
     </row>
     <row r="130" spans="2:2">
       <c r="B130" s="6"/>
     </row>
     <row r="131" spans="2:2">
-      <c r="B131" s="5"/>
+      <c r="B131" s="6"/>
     </row>
     <row r="132" spans="2:2">
       <c r="B132" s="6"/>
     </row>
     <row r="133" spans="2:2">
-      <c r="B133" s="6"/>
+      <c r="B133" s="5"/>
     </row>
     <row r="134" spans="2:2">
       <c r="B134" s="6"/>
     </row>
     <row r="135" spans="2:2">
-      <c r="B135" s="5"/>
+      <c r="B135" s="6"/>
     </row>
     <row r="136" spans="2:2">
       <c r="B136" s="6"/>
     </row>
     <row r="137" spans="2:2">
-      <c r="B137" s="6"/>
+      <c r="B137" s="5"/>
     </row>
     <row r="138" spans="2:2">
       <c r="B138" s="6"/>
@@ -1707,55 +1731,55 @@
       <c r="B143" s="6"/>
     </row>
     <row r="144" spans="2:2">
-      <c r="B144" s="7"/>
+      <c r="B144" s="6"/>
     </row>
     <row r="145" spans="2:2">
       <c r="B145" s="6"/>
     </row>
     <row r="146" spans="2:2">
-      <c r="B146" s="5"/>
+      <c r="B146" s="7"/>
     </row>
     <row r="147" spans="2:2">
-      <c r="B147" s="5"/>
+      <c r="B147" s="6"/>
     </row>
     <row r="148" spans="2:2">
-      <c r="B148" s="6"/>
+      <c r="B148" s="5"/>
     </row>
     <row r="149" spans="2:2">
-      <c r="B149" s="8"/>
+      <c r="B149" s="5"/>
     </row>
     <row r="150" spans="2:2">
       <c r="B150" s="6"/>
     </row>
     <row r="151" spans="2:2">
-      <c r="B151" s="5"/>
+      <c r="B151" s="8"/>
     </row>
     <row r="152" spans="2:2">
       <c r="B152" s="6"/>
     </row>
     <row r="153" spans="2:2">
-      <c r="B153" s="6"/>
+      <c r="B153" s="5"/>
     </row>
     <row r="154" spans="2:2">
       <c r="B154" s="6"/>
     </row>
     <row r="155" spans="2:2">
-      <c r="B155" s="5"/>
+      <c r="B155" s="6"/>
     </row>
     <row r="156" spans="2:2">
       <c r="B156" s="6"/>
     </row>
     <row r="157" spans="2:2">
-      <c r="B157" s="6"/>
+      <c r="B157" s="5"/>
     </row>
     <row r="158" spans="2:2">
       <c r="B158" s="6"/>
     </row>
-    <row r="159" ht="14.25" spans="2:2">
-      <c r="B159" s="11"/>
-    </row>
-    <row r="160" ht="14.25" spans="2:2">
-      <c r="B160" s="11"/>
+    <row r="159" spans="2:2">
+      <c r="B159" s="6"/>
+    </row>
+    <row r="160" spans="2:2">
+      <c r="B160" s="6"/>
     </row>
     <row r="161" ht="14.25" spans="2:2">
       <c r="B161" s="11"/>
@@ -2458,6 +2482,12 @@
     </row>
     <row r="394" ht="14.25" spans="2:2">
       <c r="B394" s="11"/>
+    </row>
+    <row r="395" ht="14.25" spans="2:2">
+      <c r="B395" s="11"/>
+    </row>
+    <row r="396" ht="14.25" spans="2:2">
+      <c r="B396" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
